--- a/1. Seccion de Producto/1.3.  Modulo de Planeacion de Proyecto/Cronograma Gantt project planner1.xlsx
+++ b/1. Seccion de Producto/1.3.  Modulo de Planeacion de Proyecto/Cronograma Gantt project planner1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4E1052-A138-4F88-9D0A-35AA5DA51DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DAEF2C-D669-493D-9361-96ECB4CA8732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-525" windowWidth="28830" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -873,44 +873,44 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1314,8 +1314,9 @@
   </sheetPr>
   <dimension ref="B1:BO75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="81" zoomScaleNormal="92" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AQ27" sqref="A2:AQ27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="92" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:AQ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1359,66 +1360,66 @@
         <v>22</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="26" t="s">
+      <c r="AA2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="19"/>
-      <c r="AI2" s="26" t="s">
+      <c r="AI2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1445,12 +1446,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" s="11" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="22" t="s">
         <v>49</v>
       </c>
@@ -1583,12 +1584,12 @@
       <c r="BM4" s="22"/>
     </row>
     <row r="5" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="3">
         <v>1</v>
       </c>
@@ -1770,15 +1771,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="2:67" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
       <c r="AN6" s="24"/>
@@ -1786,7 +1787,7 @@
       <c r="AP6" s="24"/>
       <c r="AQ6" s="24"/>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:67" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>98</v>
       </c>
@@ -1812,7 +1813,7 @@
       <c r="AP7" s="24"/>
       <c r="AQ7" s="24"/>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:67" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>100</v>
       </c>
@@ -1838,7 +1839,7 @@
       <c r="AP8" s="24"/>
       <c r="AQ8" s="24"/>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:67" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>101</v>
       </c>
@@ -1860,7 +1861,7 @@
       <c r="AP9" s="24"/>
       <c r="AQ9" s="24"/>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:67" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>102</v>
       </c>
@@ -1875,7 +1876,7 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
@@ -1884,7 +1885,7 @@
       <c r="AP10" s="24"/>
       <c r="AQ10" s="24"/>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:67" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>103</v>
       </c>
@@ -1910,7 +1911,7 @@
       <c r="AP11" s="24"/>
       <c r="AQ11" s="24"/>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:67" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>104</v>
       </c>
@@ -1936,7 +1937,7 @@
       <c r="AP12" s="24"/>
       <c r="AQ12" s="24"/>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:67" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>105</v>
       </c>
@@ -1962,7 +1963,7 @@
       <c r="AP13" s="24"/>
       <c r="AQ13" s="24"/>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:67" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>106</v>
       </c>
@@ -1988,7 +1989,7 @@
       <c r="AP14" s="24"/>
       <c r="AQ14" s="24"/>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:67" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>107</v>
       </c>
@@ -2014,7 +2015,7 @@
       <c r="AP15" s="24"/>
       <c r="AQ15" s="24"/>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:67" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>108</v>
       </c>
@@ -2025,13 +2026,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F16" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G16" s="8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="V16" s="24"/>
       <c r="W16" s="24"/>
@@ -2040,7 +2041,7 @@
       <c r="AP16" s="24"/>
       <c r="AQ16" s="24"/>
     </row>
-    <row r="17" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:43" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>109</v>
       </c>
@@ -2050,10 +2051,14 @@
       <c r="D17" s="7">
         <v>4</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="7">
+        <v>29</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4</v>
+      </c>
       <c r="G17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
@@ -2062,7 +2067,7 @@
       <c r="AP17" s="24"/>
       <c r="AQ17" s="24"/>
     </row>
-    <row r="18" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:43" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>110</v>
       </c>
@@ -2088,7 +2093,7 @@
       <c r="AP18" s="24"/>
       <c r="AQ18" s="24"/>
     </row>
-    <row r="19" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:43" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
         <v>111</v>
       </c>
@@ -2098,10 +2103,14 @@
       <c r="D19" s="7">
         <v>4</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="7">
+        <v>29</v>
+      </c>
+      <c r="F19" s="7">
+        <v>4</v>
+      </c>
       <c r="G19" s="8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V19" s="24"/>
       <c r="W19" s="24"/>
@@ -2110,7 +2119,7 @@
       <c r="AP19" s="24"/>
       <c r="AQ19" s="24"/>
     </row>
-    <row r="20" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:43" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>119</v>
       </c>
@@ -2132,7 +2141,7 @@
       <c r="AP20" s="24"/>
       <c r="AQ20" s="24"/>
     </row>
-    <row r="21" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:43" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
         <v>112</v>
       </c>
@@ -2142,10 +2151,14 @@
       <c r="D21" s="7">
         <v>4</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="7">
+        <v>29</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
       <c r="G21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="24"/>
       <c r="W21" s="24"/>
@@ -2154,7 +2167,7 @@
       <c r="AP21" s="24"/>
       <c r="AQ21" s="24"/>
     </row>
-    <row r="22" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:43" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
         <v>113</v>
       </c>
@@ -2164,10 +2177,14 @@
       <c r="D22" s="7">
         <v>4</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="7">
+        <v>29</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4</v>
+      </c>
       <c r="G22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
@@ -2176,7 +2193,7 @@
       <c r="AP22" s="24"/>
       <c r="AQ22" s="24"/>
     </row>
-    <row r="23" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:43" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
         <v>114</v>
       </c>
@@ -2186,10 +2203,14 @@
       <c r="D23" s="7">
         <v>4</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="7">
+        <v>29</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
       <c r="G23" s="8">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="V23" s="24"/>
       <c r="W23" s="24"/>
@@ -2198,7 +2219,7 @@
       <c r="AP23" s="24"/>
       <c r="AQ23" s="24"/>
     </row>
-    <row r="24" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:43" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
         <v>115</v>
       </c>
@@ -2208,10 +2229,14 @@
       <c r="D24" s="7">
         <v>4</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="7">
+        <v>29</v>
+      </c>
+      <c r="F24" s="7">
+        <v>4</v>
+      </c>
       <c r="G24" s="8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="V24" s="24"/>
       <c r="W24" s="24"/>
@@ -2220,7 +2245,7 @@
       <c r="AP24" s="24"/>
       <c r="AQ24" s="24"/>
     </row>
-    <row r="25" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:43" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>116</v>
       </c>
@@ -2230,10 +2255,14 @@
       <c r="D25" s="7">
         <v>3</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="7">
+        <v>29</v>
+      </c>
+      <c r="F25" s="7">
+        <v>4</v>
+      </c>
       <c r="G25" s="8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="V25" s="24"/>
       <c r="W25" s="24"/>
@@ -2242,7 +2271,7 @@
       <c r="AP25" s="24"/>
       <c r="AQ25" s="24"/>
     </row>
-    <row r="26" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:43" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
         <v>117</v>
       </c>
@@ -2252,10 +2281,14 @@
       <c r="D26" s="7">
         <v>5</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="7">
+        <v>31</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2</v>
+      </c>
       <c r="G26" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
@@ -2264,7 +2297,7 @@
       <c r="AP26" s="24"/>
       <c r="AQ26" s="24"/>
     </row>
-    <row r="27" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:43" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>118</v>
       </c>
@@ -2287,14 +2320,14 @@
       <c r="AQ27" s="24"/>
     </row>
     <row r="28" spans="2:43" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
       <c r="V28" s="24"/>
       <c r="W28" s="24"/>
       <c r="AN28" s="24"/>
@@ -2303,14 +2336,14 @@
       <c r="AQ28" s="24"/>
     </row>
     <row r="29" spans="2:43" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
       <c r="V29" s="24"/>
       <c r="W29" s="24"/>
       <c r="AN29" s="24"/>
@@ -2429,14 +2462,14 @@
       <c r="AQ34" s="24"/>
     </row>
     <row r="35" spans="2:43" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
       <c r="V35" s="24"/>
       <c r="W35" s="24"/>
       <c r="AN35" s="24"/>
@@ -2599,14 +2632,14 @@
       <c r="AQ42" s="24"/>
     </row>
     <row r="43" spans="2:43" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
       <c r="V43" s="24"/>
       <c r="W43" s="24"/>
       <c r="AN43" s="24"/>
@@ -2861,14 +2894,14 @@
       <c r="AQ55" s="24"/>
     </row>
     <row r="56" spans="2:43" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
       <c r="V56" s="24"/>
       <c r="W56" s="24"/>
       <c r="AN56" s="24"/>
@@ -3079,14 +3112,14 @@
       <c r="AQ66" s="24"/>
     </row>
     <row r="67" spans="2:43" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
       <c r="V67" s="24"/>
       <c r="W67" s="24"/>
       <c r="AN67" s="24"/>
@@ -3155,14 +3188,14 @@
       <c r="AQ70" s="24"/>
     </row>
     <row r="71" spans="2:43" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
       <c r="V71" s="24"/>
       <c r="W71" s="24"/>
       <c r="AN71" s="24"/>
@@ -3245,6 +3278,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B35:G35"/>
     <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -3256,14 +3297,6 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B35:G35"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="H6:U75 X6:AM75 AR6:BO75">
